--- a/Code/Results/Cases/Case_0_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_71/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.038762590304149</v>
+        <v>4.201225230854027</v>
       </c>
       <c r="D2">
-        <v>6.423793945841899</v>
+        <v>8.545511156068597</v>
       </c>
       <c r="E2">
-        <v>10.55594603573642</v>
+        <v>13.40546389943834</v>
       </c>
       <c r="F2">
-        <v>27.99317110370505</v>
+        <v>35.79040185421714</v>
       </c>
       <c r="G2">
-        <v>34.79767408540948</v>
+        <v>39.81654225435312</v>
       </c>
       <c r="H2">
-        <v>10.92912135308847</v>
+        <v>16.83376209536237</v>
       </c>
       <c r="I2">
-        <v>18.62728106766732</v>
+        <v>24.9037067305201</v>
       </c>
       <c r="J2">
-        <v>6.460932187911542</v>
+        <v>10.01716297997086</v>
       </c>
       <c r="K2">
-        <v>21.81724756599617</v>
+        <v>16.97629248222802</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.84588373916712</v>
+        <v>17.66049602683462</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.896635964864072</v>
+        <v>4.15200703316514</v>
       </c>
       <c r="D3">
-        <v>6.152681767235183</v>
+        <v>8.507928704994264</v>
       </c>
       <c r="E3">
-        <v>10.1129017242542</v>
+        <v>13.35495372795927</v>
       </c>
       <c r="F3">
-        <v>27.05124070923128</v>
+        <v>35.76448812944</v>
       </c>
       <c r="G3">
-        <v>33.36239741597826</v>
+        <v>39.7164337123366</v>
       </c>
       <c r="H3">
-        <v>10.80712173056675</v>
+        <v>16.87651492728228</v>
       </c>
       <c r="I3">
-        <v>18.09951102355502</v>
+        <v>24.91460065437727</v>
       </c>
       <c r="J3">
-        <v>6.339624348734843</v>
+        <v>10.02502440056451</v>
       </c>
       <c r="K3">
-        <v>20.32907228336445</v>
+        <v>16.52405358118132</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.03026964271465</v>
+        <v>17.71828516742664</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.806445519770763</v>
+        <v>4.121093246493413</v>
       </c>
       <c r="D4">
-        <v>5.982554196185907</v>
+        <v>8.485964049680858</v>
       </c>
       <c r="E4">
-        <v>9.837887825838358</v>
+        <v>13.32662578939525</v>
       </c>
       <c r="F4">
-        <v>26.48957134846632</v>
+        <v>35.75944728162774</v>
       </c>
       <c r="G4">
-        <v>32.50010858701751</v>
+        <v>39.6701548693966</v>
       </c>
       <c r="H4">
-        <v>10.74301612799072</v>
+        <v>16.9066182981614</v>
       </c>
       <c r="I4">
-        <v>17.79028576486897</v>
+        <v>24.92864064448177</v>
       </c>
       <c r="J4">
-        <v>6.268383567505626</v>
+        <v>10.03158554830292</v>
       </c>
       <c r="K4">
-        <v>19.36347575180836</v>
+        <v>16.24302889848279</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.14690082055329</v>
+        <v>17.75571013592222</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.768985808969485</v>
+        <v>4.108327747038018</v>
       </c>
       <c r="D5">
-        <v>5.912394306097493</v>
+        <v>8.477298703556974</v>
       </c>
       <c r="E5">
-        <v>9.72521319142761</v>
+        <v>13.31576518697892</v>
       </c>
       <c r="F5">
-        <v>26.26507430251811</v>
+        <v>35.76012386043017</v>
       </c>
       <c r="G5">
-        <v>32.15387635990279</v>
+        <v>39.65511901335965</v>
       </c>
       <c r="H5">
-        <v>10.71951531213112</v>
+        <v>16.91985134810363</v>
       </c>
       <c r="I5">
-        <v>17.66804896875179</v>
+        <v>24.93620541932035</v>
       </c>
       <c r="J5">
-        <v>6.240172845413305</v>
+        <v>10.03469522265723</v>
       </c>
       <c r="K5">
-        <v>18.9568374826891</v>
+        <v>16.12784170644222</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.19529261653765</v>
+        <v>17.77145067466774</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.762723910811927</v>
+        <v>4.10619809966227</v>
       </c>
       <c r="D6">
-        <v>5.900696951357527</v>
+        <v>8.475877238510545</v>
       </c>
       <c r="E6">
-        <v>9.706471793193593</v>
+        <v>13.31400327670054</v>
       </c>
       <c r="F6">
-        <v>26.22806743529044</v>
+        <v>35.76040101273685</v>
       </c>
       <c r="G6">
-        <v>32.09670798591119</v>
+        <v>39.65285323841935</v>
       </c>
       <c r="H6">
-        <v>10.71576859133894</v>
+        <v>16.92210691481243</v>
       </c>
       <c r="I6">
-        <v>17.64798082046546</v>
+        <v>24.93757270608898</v>
       </c>
       <c r="J6">
-        <v>6.235538156561088</v>
+        <v>10.03523790617007</v>
       </c>
       <c r="K6">
-        <v>18.88851811085453</v>
+        <v>16.10867993282672</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.20338034577659</v>
+        <v>17.77409398237507</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.80594314402873</v>
+        <v>4.120921757522122</v>
       </c>
       <c r="D7">
-        <v>5.981611234559193</v>
+        <v>8.485846022367676</v>
       </c>
       <c r="E7">
-        <v>9.83637049611213</v>
+        <v>13.32647654307138</v>
       </c>
       <c r="F7">
-        <v>26.48652567940605</v>
+        <v>35.75944535484288</v>
       </c>
       <c r="G7">
-        <v>32.49541776800437</v>
+        <v>39.66993660976883</v>
       </c>
       <c r="H7">
-        <v>10.74268869578875</v>
+        <v>16.90679285806311</v>
       </c>
       <c r="I7">
-        <v>17.78862189688171</v>
+        <v>24.92873520969909</v>
       </c>
       <c r="J7">
-        <v>6.267999779879108</v>
+        <v>10.03162572156025</v>
       </c>
       <c r="K7">
-        <v>19.35804507388529</v>
+        <v>16.24147790852281</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.1475499458615</v>
+        <v>17.755920434571</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.990380376973877</v>
+        <v>4.184402628605886</v>
       </c>
       <c r="D8">
-        <v>6.331124844277805</v>
+        <v>8.532325823689813</v>
       </c>
       <c r="E8">
-        <v>10.40388490826166</v>
+        <v>13.38749563298324</v>
       </c>
       <c r="F8">
-        <v>27.66504596248468</v>
+        <v>35.77920978812396</v>
       </c>
       <c r="G8">
-        <v>34.29907401328578</v>
+        <v>39.77887652930372</v>
       </c>
       <c r="H8">
-        <v>10.88475895446598</v>
+        <v>16.84770172603917</v>
       </c>
       <c r="I8">
-        <v>18.44225845022229</v>
+        <v>24.9059345110788</v>
       </c>
       <c r="J8">
-        <v>6.418435495868363</v>
+        <v>10.01951362094821</v>
       </c>
       <c r="K8">
-        <v>21.31481777943076</v>
+        <v>16.82115727867151</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.90875294242581</v>
+        <v>17.68001932349955</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.327789034149876</v>
+        <v>4.303106848228104</v>
       </c>
       <c r="D9">
-        <v>6.984143741688873</v>
+        <v>8.632010842602091</v>
       </c>
       <c r="E9">
-        <v>11.48774024494964</v>
+        <v>13.52807704337869</v>
       </c>
       <c r="F9">
-        <v>30.10057094142028</v>
+        <v>35.90423161261916</v>
       </c>
       <c r="G9">
-        <v>37.97170343676226</v>
+        <v>40.11259107097963</v>
       </c>
       <c r="H9">
-        <v>11.25301926030847</v>
+        <v>16.76253186042168</v>
       </c>
       <c r="I9">
-        <v>19.83949278452152</v>
+        <v>24.91972666868882</v>
       </c>
       <c r="J9">
-        <v>6.738939388201762</v>
+        <v>10.00952391638546</v>
       </c>
       <c r="K9">
-        <v>24.74590991094993</v>
+        <v>17.92416010350993</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.46745635777977</v>
+        <v>17.54653491147026</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.55972342678327</v>
+        <v>4.386435575558495</v>
       </c>
       <c r="D10">
-        <v>7.440614687765201</v>
+        <v>8.710064414146116</v>
       </c>
       <c r="E10">
-        <v>12.26066119867653</v>
+        <v>13.64355290033086</v>
       </c>
       <c r="F10">
-        <v>31.95697623913759</v>
+        <v>36.04853848307786</v>
       </c>
       <c r="G10">
-        <v>40.73686708140129</v>
+        <v>40.4300381341503</v>
       </c>
       <c r="H10">
-        <v>11.58335446185551</v>
+        <v>16.71885509077233</v>
       </c>
       <c r="I10">
-        <v>20.93381929932925</v>
+        <v>24.96568989212571</v>
       </c>
       <c r="J10">
-        <v>6.989721127087729</v>
+        <v>10.01057143606198</v>
       </c>
       <c r="K10">
-        <v>27.02688277079642</v>
+        <v>18.70508892460769</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.15962242778988</v>
+        <v>17.45775290856393</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.661596869432231</v>
+        <v>4.423428487765154</v>
       </c>
       <c r="D11">
-        <v>7.642693242747728</v>
+        <v>8.746530036647281</v>
       </c>
       <c r="E11">
-        <v>12.60642602610506</v>
+        <v>13.69859789138967</v>
       </c>
       <c r="F11">
-        <v>32.81485305576011</v>
+        <v>36.12549584017076</v>
       </c>
       <c r="G11">
-        <v>42.00738933734625</v>
+        <v>40.58983168269582</v>
       </c>
       <c r="H11">
-        <v>11.74764713825314</v>
+        <v>16.70312306119138</v>
       </c>
       <c r="I11">
-        <v>21.44603856873319</v>
+        <v>24.99438794211925</v>
       </c>
       <c r="J11">
-        <v>7.107117469131667</v>
+        <v>10.0128659347099</v>
       </c>
       <c r="K11">
-        <v>28.01429434119016</v>
+        <v>19.05230379313959</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.02317477064292</v>
+        <v>17.4193655523462</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.699640722049296</v>
+        <v>4.437299512059589</v>
       </c>
       <c r="D12">
-        <v>7.718384165785508</v>
+        <v>8.760468627984999</v>
       </c>
       <c r="E12">
-        <v>12.73647998891505</v>
+        <v>13.71979114225464</v>
       </c>
       <c r="F12">
-        <v>33.14158798838626</v>
+        <v>36.1562530765403</v>
       </c>
       <c r="G12">
-        <v>42.49026124751475</v>
+        <v>40.65251923353205</v>
       </c>
       <c r="H12">
-        <v>11.81195978418213</v>
+        <v>16.69776307044217</v>
       </c>
       <c r="I12">
-        <v>21.64206839669682</v>
+        <v>25.00637353728267</v>
       </c>
       <c r="J12">
-        <v>7.152051213801445</v>
+        <v>10.01399568421534</v>
       </c>
       <c r="K12">
-        <v>28.3811409549129</v>
+        <v>19.18250703848173</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.9720294141075</v>
+        <v>17.40511577247949</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.69147115938078</v>
+        <v>4.434318342219163</v>
       </c>
       <c r="D13">
-        <v>7.702120148652869</v>
+        <v>8.757461057209721</v>
       </c>
       <c r="E13">
-        <v>12.70851008576452</v>
+        <v>13.71521148659309</v>
       </c>
       <c r="F13">
-        <v>33.07113661213538</v>
+        <v>36.14955732947228</v>
       </c>
       <c r="G13">
-        <v>42.3861882779069</v>
+        <v>40.63892212891909</v>
       </c>
       <c r="H13">
-        <v>11.79801424505015</v>
+        <v>16.69889083348473</v>
       </c>
       <c r="I13">
-        <v>21.59975795187878</v>
+        <v>25.0037425331371</v>
       </c>
       <c r="J13">
-        <v>7.142352584234976</v>
+        <v>10.01374078034175</v>
       </c>
       <c r="K13">
-        <v>28.30244557027364</v>
+        <v>19.15452420638607</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.98302097936135</v>
+        <v>17.40817198175454</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.664737500934423</v>
+        <v>4.424572452285163</v>
       </c>
       <c r="D14">
-        <v>7.648937191599038</v>
+        <v>8.747674217043343</v>
       </c>
       <c r="E14">
-        <v>12.61714343075329</v>
+        <v>13.70033455488957</v>
       </c>
       <c r="F14">
-        <v>32.84169625201944</v>
+        <v>36.12799396076068</v>
       </c>
       <c r="G14">
-        <v>42.04708042981687</v>
+        <v>40.59494560998409</v>
       </c>
       <c r="H14">
-        <v>11.7528956436993</v>
+        <v>16.70267010530539</v>
       </c>
       <c r="I14">
-        <v>21.46212466249957</v>
+        <v>24.99535160777497</v>
       </c>
       <c r="J14">
-        <v>7.110804585211509</v>
+        <v>10.01295365526295</v>
       </c>
       <c r="K14">
-        <v>28.04461568578705</v>
+        <v>19.06304200772728</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.01895643822608</v>
+        <v>17.41818747407992</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.648292631620838</v>
+        <v>4.41858474719351</v>
       </c>
       <c r="D15">
-        <v>7.61625202738718</v>
+        <v>8.741696164567744</v>
       </c>
       <c r="E15">
-        <v>12.56106331692275</v>
+        <v>13.69126705680012</v>
       </c>
       <c r="F15">
-        <v>32.70140104056304</v>
+        <v>36.11499573378103</v>
       </c>
       <c r="G15">
-        <v>41.83959491815457</v>
+        <v>40.56829112941983</v>
       </c>
       <c r="H15">
-        <v>11.72553495739507</v>
+        <v>16.70506288713048</v>
       </c>
       <c r="I15">
-        <v>21.37808921069402</v>
+        <v>24.99035747785124</v>
       </c>
       <c r="J15">
-        <v>7.091542933047834</v>
+        <v>10.01250547298515</v>
       </c>
       <c r="K15">
-        <v>27.88577222722521</v>
+        <v>19.0068363937107</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.04103655957623</v>
+        <v>17.42435955953888</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.552991628818556</v>
+        <v>4.383999097437654</v>
       </c>
       <c r="D16">
-        <v>7.427293410425374</v>
+        <v>8.707699911046044</v>
       </c>
       <c r="E16">
-        <v>12.23794326659996</v>
+        <v>13.64000510851579</v>
       </c>
       <c r="F16">
-        <v>31.90117602277647</v>
+        <v>36.04373583586818</v>
       </c>
       <c r="G16">
-        <v>40.65408225662632</v>
+        <v>40.41990194781695</v>
       </c>
       <c r="H16">
-        <v>11.57290671195306</v>
+        <v>16.71996667900321</v>
       </c>
       <c r="I16">
-        <v>20.90063321202646</v>
+        <v>24.96397102207166</v>
       </c>
       <c r="J16">
-        <v>6.982115749140061</v>
+        <v>10.01045802374051</v>
       </c>
       <c r="K16">
-        <v>26.96135574589426</v>
+        <v>18.68222508268621</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.16861243361921</v>
+        <v>17.46030177859813</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.493587981744958</v>
+        <v>4.362543554824104</v>
       </c>
       <c r="D17">
-        <v>7.309921294190766</v>
+        <v>8.68708421612901</v>
       </c>
       <c r="E17">
-        <v>12.0381889766263</v>
+        <v>13.609192751137</v>
       </c>
       <c r="F17">
-        <v>31.41364242338553</v>
+        <v>36.00291001093476</v>
       </c>
       <c r="G17">
-        <v>39.92997199872254</v>
+        <v>40.3327870957072</v>
       </c>
       <c r="H17">
-        <v>11.48292381721333</v>
+        <v>16.73017106167764</v>
       </c>
       <c r="I17">
-        <v>20.61140590059152</v>
+        <v>24.94977792984191</v>
       </c>
       <c r="J17">
-        <v>6.91583461117658</v>
+        <v>10.00966726110249</v>
       </c>
       <c r="K17">
-        <v>26.38150262878259</v>
+        <v>18.48093699920488</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.24779981744084</v>
+        <v>17.48286275343443</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.459078901846525</v>
+        <v>4.350117232857746</v>
       </c>
       <c r="D18">
-        <v>7.241888635454037</v>
+        <v>8.675317339683501</v>
       </c>
       <c r="E18">
-        <v>11.92274693507781</v>
+        <v>13.59170776712551</v>
       </c>
       <c r="F18">
-        <v>31.13448632214507</v>
+        <v>35.98049360830476</v>
       </c>
       <c r="G18">
-        <v>39.51467086816712</v>
+        <v>40.28413150576246</v>
       </c>
       <c r="H18">
-        <v>11.4324829133716</v>
+        <v>16.73642958598185</v>
       </c>
       <c r="I18">
-        <v>20.44640501978174</v>
+        <v>24.94234778617533</v>
       </c>
       <c r="J18">
-        <v>6.878023116660168</v>
+        <v>10.00938359388866</v>
       </c>
       <c r="K18">
-        <v>26.04325006501448</v>
+        <v>18.36441197269689</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.29368325732468</v>
+        <v>17.49602753418657</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.44733641628373</v>
+        <v>4.345895367615619</v>
       </c>
       <c r="D19">
-        <v>7.218765159235851</v>
+        <v>8.671349100377169</v>
       </c>
       <c r="E19">
-        <v>11.88356754965964</v>
+        <v>13.58582881366454</v>
       </c>
       <c r="F19">
-        <v>31.04018763427819</v>
+        <v>35.97308711184962</v>
       </c>
       <c r="G19">
-        <v>39.37426443564615</v>
+        <v>40.26790768532214</v>
       </c>
       <c r="H19">
-        <v>11.41562782644835</v>
+        <v>16.73861538531108</v>
       </c>
       <c r="I19">
-        <v>20.39077190330497</v>
+        <v>24.93995805255653</v>
       </c>
       <c r="J19">
-        <v>6.865274335049816</v>
+        <v>10.00931696010453</v>
       </c>
       <c r="K19">
-        <v>25.92790550503842</v>
+        <v>18.32483385255426</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.30927627627199</v>
+        <v>17.50051727284736</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.499947050997957</v>
+        <v>4.364836443714172</v>
       </c>
       <c r="D20">
-        <v>7.322470170944967</v>
+        <v>8.689269459598258</v>
       </c>
       <c r="E20">
-        <v>12.05951029719902</v>
+        <v>13.61244829193015</v>
       </c>
       <c r="F20">
-        <v>31.46541128425805</v>
+        <v>36.0071457860918</v>
       </c>
       <c r="G20">
-        <v>40.00693256564955</v>
+        <v>40.3419107314143</v>
       </c>
       <c r="H20">
-        <v>11.49236597222536</v>
+        <v>16.72904448468101</v>
       </c>
       <c r="I20">
-        <v>20.64205453517461</v>
+        <v>24.95121291891328</v>
       </c>
       <c r="J20">
-        <v>6.92285809604653</v>
+        <v>10.00973372843301</v>
       </c>
       <c r="K20">
-        <v>26.44371808607015</v>
+        <v>18.50244295962579</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.23933526276852</v>
+        <v>17.48044161717389</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.672604371299526</v>
+        <v>4.427438831737624</v>
       </c>
       <c r="D21">
-        <v>7.664581085474585</v>
+        <v>8.750545389826794</v>
       </c>
       <c r="E21">
-        <v>12.64400412422821</v>
+        <v>13.70469490493821</v>
       </c>
       <c r="F21">
-        <v>32.90903769190457</v>
+        <v>36.13428391348445</v>
       </c>
       <c r="G21">
-        <v>42.14663713477126</v>
+        <v>40.60780379588884</v>
       </c>
       <c r="H21">
-        <v>11.76609045349714</v>
+        <v>16.70154380958911</v>
       </c>
       <c r="I21">
-        <v>21.50249483361042</v>
+        <v>24.99778589775373</v>
       </c>
       <c r="J21">
-        <v>7.120057982489371</v>
+        <v>10.01317777806098</v>
       </c>
       <c r="K21">
-        <v>28.12053700665493</v>
+        <v>19.089948207355</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.00838700256089</v>
+        <v>17.41523790801328</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.78233397607697</v>
+        <v>4.467549685406738</v>
       </c>
       <c r="D22">
-        <v>7.883314486228135</v>
+        <v>8.791345785948621</v>
       </c>
       <c r="E22">
-        <v>13.02087285826017</v>
+        <v>13.76701082453619</v>
       </c>
       <c r="F22">
-        <v>33.86347717336731</v>
+        <v>36.22678332595341</v>
       </c>
       <c r="G22">
-        <v>43.55530745288607</v>
+        <v>40.79425092979115</v>
       </c>
       <c r="H22">
-        <v>11.95725695175308</v>
+        <v>16.68705357431622</v>
       </c>
       <c r="I22">
-        <v>22.07688492725647</v>
+        <v>25.03474033134549</v>
       </c>
       <c r="J22">
-        <v>7.251731329306948</v>
+        <v>10.01694887310087</v>
       </c>
       <c r="K22">
-        <v>29.17533745524831</v>
+        <v>19.46640912255597</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.86051263133458</v>
+        <v>17.37429409295845</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.724056716872132</v>
+        <v>4.446217202816676</v>
       </c>
       <c r="D23">
-        <v>7.767024212965462</v>
+        <v>8.76950363571131</v>
       </c>
       <c r="E23">
-        <v>12.82020846087067</v>
+        <v>13.73357046803448</v>
       </c>
       <c r="F23">
-        <v>33.35307644064446</v>
+        <v>36.17655830137576</v>
       </c>
       <c r="G23">
-        <v>42.80253399348991</v>
+        <v>40.6935941094553</v>
       </c>
       <c r="H23">
-        <v>11.85407728439703</v>
+        <v>16.69446780931273</v>
       </c>
       <c r="I23">
-        <v>21.76921620019641</v>
+        <v>25.0144217662348</v>
       </c>
       <c r="J23">
-        <v>7.181197657296985</v>
+        <v>10.01479728806567</v>
       </c>
       <c r="K23">
-        <v>28.61607642343346</v>
+        <v>19.26621000694531</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.9391517348041</v>
+        <v>17.39599401605613</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.497073227323338</v>
+        <v>4.363800112394537</v>
       </c>
       <c r="D24">
-        <v>7.316798546499598</v>
+        <v>8.688281244542766</v>
       </c>
       <c r="E24">
-        <v>12.0498727957654</v>
+        <v>13.61097574629388</v>
       </c>
       <c r="F24">
-        <v>31.44200304734093</v>
+        <v>36.00522750537249</v>
       </c>
       <c r="G24">
-        <v>39.97213557409793</v>
+        <v>40.33778148535021</v>
       </c>
       <c r="H24">
-        <v>11.48809315753026</v>
+        <v>16.72955258962302</v>
       </c>
       <c r="I24">
-        <v>20.62819430038317</v>
+        <v>24.9505618874287</v>
       </c>
       <c r="J24">
-        <v>6.919681861566948</v>
+        <v>10.00970314602241</v>
       </c>
       <c r="K24">
-        <v>26.41560571228297</v>
+        <v>18.4927226028567</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.24316097481423</v>
+        <v>17.48153560795716</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.239243361316031</v>
+        <v>4.271650901383677</v>
       </c>
       <c r="D25">
-        <v>6.811363381128334</v>
+        <v>8.60416850301149</v>
       </c>
       <c r="E25">
-        <v>11.19830297654072</v>
+        <v>13.48786144844369</v>
       </c>
       <c r="F25">
-        <v>29.42938840164668</v>
+        <v>35.86117871610205</v>
       </c>
       <c r="G25">
-        <v>36.96550161163961</v>
+        <v>40.00953203336389</v>
       </c>
       <c r="H25">
-        <v>11.14325373398717</v>
+        <v>16.78226605480069</v>
       </c>
       <c r="I25">
-        <v>19.44943630306651</v>
+        <v>24.90971010156083</v>
       </c>
       <c r="J25">
-        <v>6.649533021993292</v>
+        <v>10.0107528286316</v>
       </c>
       <c r="K25">
-        <v>23.86041463427</v>
+        <v>17.63034035192478</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.5839643598239</v>
+        <v>17.58100955630061</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_71/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_71/res_line/loading_percent.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.201225230854027</v>
+        <v>4.038762590304244</v>
       </c>
       <c r="D2">
-        <v>8.545511156068597</v>
+        <v>6.423793945841892</v>
       </c>
       <c r="E2">
-        <v>13.40546389943834</v>
+        <v>10.55594603573643</v>
       </c>
       <c r="F2">
-        <v>35.79040185421714</v>
+        <v>27.99317110370507</v>
       </c>
       <c r="G2">
-        <v>39.81654225435312</v>
+        <v>34.79767408540952</v>
       </c>
       <c r="H2">
-        <v>16.83376209536237</v>
+        <v>10.92912135308847</v>
       </c>
       <c r="I2">
-        <v>24.9037067305201</v>
+        <v>18.62728106766732</v>
       </c>
       <c r="J2">
-        <v>10.01716297997086</v>
+        <v>6.460932187911555</v>
       </c>
       <c r="K2">
-        <v>16.97629248222802</v>
+        <v>21.81724756599619</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.66049602683462</v>
+        <v>11.84588373916715</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.15200703316514</v>
+        <v>3.89663596486376</v>
       </c>
       <c r="D3">
-        <v>8.507928704994264</v>
+        <v>6.152681767235229</v>
       </c>
       <c r="E3">
-        <v>13.35495372795927</v>
+        <v>10.11290172425423</v>
       </c>
       <c r="F3">
-        <v>35.76448812944</v>
+        <v>27.05124070923123</v>
       </c>
       <c r="G3">
-        <v>39.7164337123366</v>
+        <v>33.36239741597819</v>
       </c>
       <c r="H3">
-        <v>16.87651492728228</v>
+        <v>10.80712173056675</v>
       </c>
       <c r="I3">
-        <v>24.91460065437727</v>
+        <v>18.09951102355503</v>
       </c>
       <c r="J3">
-        <v>10.02502440056451</v>
+        <v>6.339624348734849</v>
       </c>
       <c r="K3">
-        <v>16.52405358118132</v>
+        <v>20.32907228336448</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.71828516742664</v>
+        <v>12.03026964271465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.121093246493413</v>
+        <v>3.806445519770662</v>
       </c>
       <c r="D4">
-        <v>8.485964049680858</v>
+        <v>5.982554196185857</v>
       </c>
       <c r="E4">
-        <v>13.32662578939525</v>
+        <v>9.83788782583836</v>
       </c>
       <c r="F4">
-        <v>35.75944728162774</v>
+        <v>26.4895713484662</v>
       </c>
       <c r="G4">
-        <v>39.6701548693966</v>
+        <v>32.50010858701744</v>
       </c>
       <c r="H4">
-        <v>16.9066182981614</v>
+        <v>10.74301612799069</v>
       </c>
       <c r="I4">
-        <v>24.92864064448177</v>
+        <v>17.79028576486894</v>
       </c>
       <c r="J4">
-        <v>10.03158554830292</v>
+        <v>6.26838356750567</v>
       </c>
       <c r="K4">
-        <v>16.24302889848279</v>
+        <v>19.36347575180843</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.75571013592222</v>
+        <v>12.14690082055328</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.108327747038018</v>
+        <v>3.768985808969694</v>
       </c>
       <c r="D5">
-        <v>8.477298703556974</v>
+        <v>5.912394306097492</v>
       </c>
       <c r="E5">
-        <v>13.31576518697892</v>
+        <v>9.725213191427676</v>
       </c>
       <c r="F5">
-        <v>35.76012386043017</v>
+        <v>26.26507430251855</v>
       </c>
       <c r="G5">
-        <v>39.65511901335965</v>
+        <v>32.15387635990331</v>
       </c>
       <c r="H5">
-        <v>16.91985134810363</v>
+        <v>10.71951531213134</v>
       </c>
       <c r="I5">
-        <v>24.93620541932035</v>
+        <v>17.66804896875209</v>
       </c>
       <c r="J5">
-        <v>10.03469522265723</v>
+        <v>6.240172845413377</v>
       </c>
       <c r="K5">
-        <v>16.12784170644222</v>
+        <v>18.95683748268896</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.77145067466774</v>
+        <v>12.19529261653779</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.10619809966227</v>
+        <v>3.762723910811921</v>
       </c>
       <c r="D6">
-        <v>8.475877238510545</v>
+        <v>5.900696951357394</v>
       </c>
       <c r="E6">
-        <v>13.31400327670054</v>
+        <v>9.706471793193497</v>
       </c>
       <c r="F6">
-        <v>35.76040101273685</v>
+        <v>26.22806743529041</v>
       </c>
       <c r="G6">
-        <v>39.65285323841935</v>
+        <v>32.09670798591132</v>
       </c>
       <c r="H6">
-        <v>16.92210691481243</v>
+        <v>10.71576859133888</v>
       </c>
       <c r="I6">
-        <v>24.93757270608898</v>
+        <v>17.64798082046551</v>
       </c>
       <c r="J6">
-        <v>10.03523790617007</v>
+        <v>6.235538156561066</v>
       </c>
       <c r="K6">
-        <v>16.10867993282672</v>
+        <v>18.88851811085449</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.77409398237507</v>
+        <v>12.20338034577659</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.120921757522122</v>
+        <v>3.805943144028628</v>
       </c>
       <c r="D7">
-        <v>8.485846022367676</v>
+        <v>5.981611234559221</v>
       </c>
       <c r="E7">
-        <v>13.32647654307138</v>
+        <v>9.83637049611216</v>
       </c>
       <c r="F7">
-        <v>35.75944535484288</v>
+        <v>26.48652567940599</v>
       </c>
       <c r="G7">
-        <v>39.66993660976883</v>
+        <v>32.49541776800427</v>
       </c>
       <c r="H7">
-        <v>16.90679285806311</v>
+        <v>10.7426886957887</v>
       </c>
       <c r="I7">
-        <v>24.92873520969909</v>
+        <v>17.78862189688166</v>
       </c>
       <c r="J7">
-        <v>10.03162572156025</v>
+        <v>6.267999779879109</v>
       </c>
       <c r="K7">
-        <v>16.24147790852281</v>
+        <v>19.35804507388531</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.755920434571</v>
+        <v>12.14754994586143</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.184402628605886</v>
+        <v>3.99038037697398</v>
       </c>
       <c r="D8">
-        <v>8.532325823689813</v>
+        <v>6.331124844277775</v>
       </c>
       <c r="E8">
-        <v>13.38749563298324</v>
+        <v>10.40388490826165</v>
       </c>
       <c r="F8">
-        <v>35.77920978812396</v>
+        <v>27.66504596248469</v>
       </c>
       <c r="G8">
-        <v>39.77887652930372</v>
+        <v>34.29907401328583</v>
       </c>
       <c r="H8">
-        <v>16.84770172603917</v>
+        <v>10.88475895446598</v>
       </c>
       <c r="I8">
-        <v>24.9059345110788</v>
+        <v>18.4422584502223</v>
       </c>
       <c r="J8">
-        <v>10.01951362094821</v>
+        <v>6.418435495868399</v>
       </c>
       <c r="K8">
-        <v>16.82115727867151</v>
+        <v>21.31481777943074</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.68001932349955</v>
+        <v>11.90875294242584</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.303106848228104</v>
+        <v>4.327789034149858</v>
       </c>
       <c r="D9">
-        <v>8.632010842602091</v>
+        <v>6.984143741688896</v>
       </c>
       <c r="E9">
-        <v>13.52807704337869</v>
+        <v>11.48774024494964</v>
       </c>
       <c r="F9">
-        <v>35.90423161261916</v>
+        <v>30.10057094142032</v>
       </c>
       <c r="G9">
-        <v>40.11259107097963</v>
+        <v>37.9717034367623</v>
       </c>
       <c r="H9">
-        <v>16.76253186042168</v>
+        <v>11.25301926030854</v>
       </c>
       <c r="I9">
-        <v>24.91972666868882</v>
+        <v>19.83949278452155</v>
       </c>
       <c r="J9">
-        <v>10.00952391638546</v>
+        <v>6.738939388201771</v>
       </c>
       <c r="K9">
-        <v>17.92416010350993</v>
+        <v>24.74590991094988</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.54653491147026</v>
+        <v>11.46745635777977</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.386435575558495</v>
+        <v>4.55972342678327</v>
       </c>
       <c r="D10">
-        <v>8.710064414146116</v>
+        <v>7.440614687765239</v>
       </c>
       <c r="E10">
-        <v>13.64355290033086</v>
+        <v>12.26066119867654</v>
       </c>
       <c r="F10">
-        <v>36.04853848307786</v>
+        <v>31.95697623913759</v>
       </c>
       <c r="G10">
-        <v>40.4300381341503</v>
+        <v>40.73686708140131</v>
       </c>
       <c r="H10">
-        <v>16.71885509077233</v>
+        <v>11.58335446185552</v>
       </c>
       <c r="I10">
-        <v>24.96568989212571</v>
+        <v>20.93381929932923</v>
       </c>
       <c r="J10">
-        <v>10.01057143606198</v>
+        <v>6.989721127087746</v>
       </c>
       <c r="K10">
-        <v>18.70508892460769</v>
+        <v>27.02688277079645</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.45775290856393</v>
+        <v>11.15962242778981</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.423428487765154</v>
+        <v>4.66159686943204</v>
       </c>
       <c r="D11">
-        <v>8.746530036647281</v>
+        <v>7.642693242747729</v>
       </c>
       <c r="E11">
-        <v>13.69859789138967</v>
+        <v>12.60642602610506</v>
       </c>
       <c r="F11">
-        <v>36.12549584017076</v>
+        <v>32.81485305576008</v>
       </c>
       <c r="G11">
-        <v>40.58983168269582</v>
+        <v>42.00738933734623</v>
       </c>
       <c r="H11">
-        <v>16.70312306119138</v>
+        <v>11.74764713825313</v>
       </c>
       <c r="I11">
-        <v>24.99438794211925</v>
+        <v>21.44603856873317</v>
       </c>
       <c r="J11">
-        <v>10.0128659347099</v>
+        <v>7.107117469131683</v>
       </c>
       <c r="K11">
-        <v>19.05230379313959</v>
+        <v>28.01429434119018</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.4193655523462</v>
+        <v>11.02317477064292</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.437299512059589</v>
+        <v>4.699640722049407</v>
       </c>
       <c r="D12">
-        <v>8.760468627984999</v>
+        <v>7.718384165785487</v>
       </c>
       <c r="E12">
-        <v>13.71979114225464</v>
+        <v>12.73647998891506</v>
       </c>
       <c r="F12">
-        <v>36.1562530765403</v>
+        <v>33.14158798838623</v>
       </c>
       <c r="G12">
-        <v>40.65251923353205</v>
+        <v>42.49026124751474</v>
       </c>
       <c r="H12">
-        <v>16.69776307044217</v>
+        <v>11.81195978418212</v>
       </c>
       <c r="I12">
-        <v>25.00637353728267</v>
+        <v>21.64206839669682</v>
       </c>
       <c r="J12">
-        <v>10.01399568421534</v>
+        <v>7.152051213801497</v>
       </c>
       <c r="K12">
-        <v>19.18250703848173</v>
+        <v>28.38114095491289</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.40511577247949</v>
+        <v>10.9720294141075</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.434318342219163</v>
+        <v>4.69147115938078</v>
       </c>
       <c r="D13">
-        <v>8.757461057209721</v>
+        <v>7.702120148652885</v>
       </c>
       <c r="E13">
-        <v>13.71521148659309</v>
+        <v>12.70851008576454</v>
       </c>
       <c r="F13">
-        <v>36.14955732947228</v>
+        <v>33.07113661213537</v>
       </c>
       <c r="G13">
-        <v>40.63892212891909</v>
+        <v>42.38618827790688</v>
       </c>
       <c r="H13">
-        <v>16.69889083348473</v>
+        <v>11.79801424505012</v>
       </c>
       <c r="I13">
-        <v>25.0037425331371</v>
+        <v>21.59975795187877</v>
       </c>
       <c r="J13">
-        <v>10.01374078034175</v>
+        <v>7.142352584234965</v>
       </c>
       <c r="K13">
-        <v>19.15452420638607</v>
+        <v>28.30244557027371</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.40817198175454</v>
+        <v>10.98302097936132</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.424572452285163</v>
+        <v>4.664737500934335</v>
       </c>
       <c r="D14">
-        <v>8.747674217043343</v>
+        <v>7.648937191599033</v>
       </c>
       <c r="E14">
-        <v>13.70033455488957</v>
+        <v>12.61714343075327</v>
       </c>
       <c r="F14">
-        <v>36.12799396076068</v>
+        <v>32.84169625201946</v>
       </c>
       <c r="G14">
-        <v>40.59494560998409</v>
+        <v>42.04708042981679</v>
       </c>
       <c r="H14">
-        <v>16.70267010530539</v>
+        <v>11.75289564369937</v>
       </c>
       <c r="I14">
-        <v>24.99535160777497</v>
+        <v>21.46212466249961</v>
       </c>
       <c r="J14">
-        <v>10.01295365526295</v>
+        <v>7.110804585211493</v>
       </c>
       <c r="K14">
-        <v>19.06304200772728</v>
+        <v>28.044615685787</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.41818747407992</v>
+        <v>11.01895643822618</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.41858474719351</v>
+        <v>4.648292631620832</v>
       </c>
       <c r="D15">
-        <v>8.741696164567744</v>
+        <v>7.616252027387209</v>
       </c>
       <c r="E15">
-        <v>13.69126705680012</v>
+        <v>12.56106331692274</v>
       </c>
       <c r="F15">
-        <v>36.11499573378103</v>
+        <v>32.701401040563</v>
       </c>
       <c r="G15">
-        <v>40.56829112941983</v>
+        <v>41.83959491815452</v>
       </c>
       <c r="H15">
-        <v>16.70506288713048</v>
+        <v>11.72553495739508</v>
       </c>
       <c r="I15">
-        <v>24.99035747785124</v>
+        <v>21.37808921069401</v>
       </c>
       <c r="J15">
-        <v>10.01250547298515</v>
+        <v>7.091542933047819</v>
       </c>
       <c r="K15">
-        <v>19.0068363937107</v>
+        <v>27.8857722272252</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.42435955953888</v>
+        <v>11.04103655957619</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.383999097437654</v>
+        <v>4.552991628818455</v>
       </c>
       <c r="D16">
-        <v>8.707699911046044</v>
+        <v>7.427293410425357</v>
       </c>
       <c r="E16">
-        <v>13.64000510851579</v>
+        <v>12.2379432666</v>
       </c>
       <c r="F16">
-        <v>36.04373583586818</v>
+        <v>31.90117602277648</v>
       </c>
       <c r="G16">
-        <v>40.41990194781695</v>
+        <v>40.65408225662635</v>
       </c>
       <c r="H16">
-        <v>16.71996667900321</v>
+        <v>11.57290671195308</v>
       </c>
       <c r="I16">
-        <v>24.96397102207166</v>
+        <v>20.90063321202648</v>
       </c>
       <c r="J16">
-        <v>10.01045802374051</v>
+        <v>6.982115749140111</v>
       </c>
       <c r="K16">
-        <v>18.68222508268621</v>
+        <v>26.96135574589429</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.46030177859813</v>
+        <v>11.16861243361924</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.362543554824104</v>
+        <v>4.493587981745041</v>
       </c>
       <c r="D17">
-        <v>8.68708421612901</v>
+        <v>7.309921294190801</v>
       </c>
       <c r="E17">
-        <v>13.609192751137</v>
+        <v>12.03818897662631</v>
       </c>
       <c r="F17">
-        <v>36.00291001093476</v>
+        <v>31.41364242338561</v>
       </c>
       <c r="G17">
-        <v>40.3327870957072</v>
+        <v>39.92997199872259</v>
       </c>
       <c r="H17">
-        <v>16.73017106167764</v>
+        <v>11.48292381721339</v>
       </c>
       <c r="I17">
-        <v>24.94977792984191</v>
+        <v>20.61140590059156</v>
       </c>
       <c r="J17">
-        <v>10.00966726110249</v>
+        <v>6.915834611176573</v>
       </c>
       <c r="K17">
-        <v>18.48093699920488</v>
+        <v>26.38150262878253</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.48286275343443</v>
+        <v>11.24779981744087</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.350117232857746</v>
+        <v>4.459078901846609</v>
       </c>
       <c r="D18">
-        <v>8.675317339683501</v>
+        <v>7.241888635454004</v>
       </c>
       <c r="E18">
-        <v>13.59170776712551</v>
+        <v>11.9227469350778</v>
       </c>
       <c r="F18">
-        <v>35.98049360830476</v>
+        <v>31.13448632214504</v>
       </c>
       <c r="G18">
-        <v>40.28413150576246</v>
+        <v>39.51467086816709</v>
       </c>
       <c r="H18">
-        <v>16.73642958598185</v>
+        <v>11.43248291337158</v>
       </c>
       <c r="I18">
-        <v>24.94234778617533</v>
+        <v>20.44640501978171</v>
       </c>
       <c r="J18">
-        <v>10.00938359388866</v>
+        <v>6.878023116660173</v>
       </c>
       <c r="K18">
-        <v>18.36441197269689</v>
+        <v>26.04325006501449</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.49602753418657</v>
+        <v>11.29368325732461</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.345895367615619</v>
+        <v>4.447336416283994</v>
       </c>
       <c r="D19">
-        <v>8.671349100377169</v>
+        <v>7.218765159235844</v>
       </c>
       <c r="E19">
-        <v>13.58582881366454</v>
+        <v>11.88356754965961</v>
       </c>
       <c r="F19">
-        <v>35.97308711184962</v>
+        <v>31.04018763427815</v>
       </c>
       <c r="G19">
-        <v>40.26790768532214</v>
+        <v>39.37426443564615</v>
       </c>
       <c r="H19">
-        <v>16.73861538531108</v>
+        <v>11.41562782644826</v>
       </c>
       <c r="I19">
-        <v>24.93995805255653</v>
+        <v>20.39077190330489</v>
       </c>
       <c r="J19">
-        <v>10.00931696010453</v>
+        <v>6.865274335049802</v>
       </c>
       <c r="K19">
-        <v>18.32483385255426</v>
+        <v>25.92790550503847</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.50051727284736</v>
+        <v>11.30927627627195</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.364836443714172</v>
+        <v>4.499947050997855</v>
       </c>
       <c r="D20">
-        <v>8.689269459598258</v>
+        <v>7.322470170944974</v>
       </c>
       <c r="E20">
-        <v>13.61244829193015</v>
+        <v>12.05951029719903</v>
       </c>
       <c r="F20">
-        <v>36.0071457860918</v>
+        <v>31.46541128425805</v>
       </c>
       <c r="G20">
-        <v>40.3419107314143</v>
+        <v>40.00693256564952</v>
       </c>
       <c r="H20">
-        <v>16.72904448468101</v>
+        <v>11.49236597222536</v>
       </c>
       <c r="I20">
-        <v>24.95121291891328</v>
+        <v>20.6420545351746</v>
       </c>
       <c r="J20">
-        <v>10.00973372843301</v>
+        <v>6.92285809604653</v>
       </c>
       <c r="K20">
-        <v>18.50244295962579</v>
+        <v>26.44371808607015</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.48044161717389</v>
+        <v>11.23933526276849</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.427438831737624</v>
+        <v>4.672604371299539</v>
       </c>
       <c r="D21">
-        <v>8.750545389826794</v>
+        <v>7.664581085474556</v>
       </c>
       <c r="E21">
-        <v>13.70469490493821</v>
+        <v>12.64400412422821</v>
       </c>
       <c r="F21">
-        <v>36.13428391348445</v>
+        <v>32.90903769190464</v>
       </c>
       <c r="G21">
-        <v>40.60780379588884</v>
+        <v>42.14663713477136</v>
       </c>
       <c r="H21">
-        <v>16.70154380958911</v>
+        <v>11.76609045349718</v>
       </c>
       <c r="I21">
-        <v>24.99778589775373</v>
+        <v>21.50249483361048</v>
       </c>
       <c r="J21">
-        <v>10.01317777806098</v>
+        <v>7.12005798248941</v>
       </c>
       <c r="K21">
-        <v>19.089948207355</v>
+        <v>28.120537006655</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.41523790801328</v>
+        <v>11.00838700256094</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.467549685406738</v>
+        <v>4.78233397607697</v>
       </c>
       <c r="D22">
-        <v>8.791345785948621</v>
+        <v>7.883314486228072</v>
       </c>
       <c r="E22">
-        <v>13.76701082453619</v>
+        <v>13.02087285826014</v>
       </c>
       <c r="F22">
-        <v>36.22678332595341</v>
+        <v>33.86347717336731</v>
       </c>
       <c r="G22">
-        <v>40.79425092979115</v>
+        <v>43.55530745288604</v>
       </c>
       <c r="H22">
-        <v>16.68705357431622</v>
+        <v>11.95725695175312</v>
       </c>
       <c r="I22">
-        <v>25.03474033134549</v>
+        <v>22.0768849272565</v>
       </c>
       <c r="J22">
-        <v>10.01694887310087</v>
+        <v>7.251731329306972</v>
       </c>
       <c r="K22">
-        <v>19.46640912255597</v>
+        <v>29.17533745524825</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.37429409295845</v>
+        <v>10.86051263133468</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.446217202816676</v>
+        <v>4.724056716872099</v>
       </c>
       <c r="D23">
-        <v>8.76950363571131</v>
+        <v>7.767024212965477</v>
       </c>
       <c r="E23">
-        <v>13.73357046803448</v>
+        <v>12.82020846087066</v>
       </c>
       <c r="F23">
-        <v>36.17655830137576</v>
+        <v>33.35307644064449</v>
       </c>
       <c r="G23">
-        <v>40.6935941094553</v>
+        <v>42.80253399348995</v>
       </c>
       <c r="H23">
-        <v>16.69446780931273</v>
+        <v>11.85407728439709</v>
       </c>
       <c r="I23">
-        <v>25.0144217662348</v>
+        <v>21.76921620019642</v>
       </c>
       <c r="J23">
-        <v>10.01479728806567</v>
+        <v>7.181197657296982</v>
       </c>
       <c r="K23">
-        <v>19.26621000694531</v>
+        <v>28.61607642343347</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.39599401605613</v>
+        <v>10.93915173480413</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.363800112394537</v>
+        <v>4.497073227323338</v>
       </c>
       <c r="D24">
-        <v>8.688281244542766</v>
+        <v>7.316798546499593</v>
       </c>
       <c r="E24">
-        <v>13.61097574629388</v>
+        <v>12.04987279576538</v>
       </c>
       <c r="F24">
-        <v>36.00522750537249</v>
+        <v>31.44200304734093</v>
       </c>
       <c r="G24">
-        <v>40.33778148535021</v>
+        <v>39.972135574098</v>
       </c>
       <c r="H24">
-        <v>16.72955258962302</v>
+        <v>11.48809315753019</v>
       </c>
       <c r="I24">
-        <v>24.9505618874287</v>
+        <v>20.62819430038313</v>
       </c>
       <c r="J24">
-        <v>10.00970314602241</v>
+        <v>6.919681861566938</v>
       </c>
       <c r="K24">
-        <v>18.4927226028567</v>
+        <v>26.41560571228305</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.48153560795716</v>
+        <v>11.24316097481413</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.271650901383677</v>
+        <v>4.239243361316039</v>
       </c>
       <c r="D25">
-        <v>8.60416850301149</v>
+        <v>6.811363381128342</v>
       </c>
       <c r="E25">
-        <v>13.48786144844369</v>
+        <v>11.19830297654075</v>
       </c>
       <c r="F25">
-        <v>35.86117871610205</v>
+        <v>29.4293884016467</v>
       </c>
       <c r="G25">
-        <v>40.00953203336389</v>
+        <v>36.96550161163964</v>
       </c>
       <c r="H25">
-        <v>16.78226605480069</v>
+        <v>11.14325373398716</v>
       </c>
       <c r="I25">
-        <v>24.90971010156083</v>
+        <v>19.44943630306653</v>
       </c>
       <c r="J25">
-        <v>10.0107528286316</v>
+        <v>6.649533021993288</v>
       </c>
       <c r="K25">
-        <v>17.63034035192478</v>
+        <v>23.86041463427</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.58100955630061</v>
+        <v>11.5839643598239</v>
       </c>
       <c r="O25">
         <v>0</v>
